--- a/biology/Médecine/Manix/Manix.xlsx
+++ b/biology/Médecine/Manix/Manix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Manix est un fabricant de préservatifs fondé en France en 1986 et appartenant à LifeStyles Healthcare[1] depuis 2017.
+Manix est un fabricant de préservatifs fondé en France en 1986 et appartenant à LifeStyles Healthcare depuis 2017.
 </t>
         </is>
       </c>
@@ -512,17 +524,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1986, création de la marque Manix[2] par les laboratoires DEGAN, Les Arcs-sur-Argens, Var, France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1986, création de la marque Manix par les laboratoires DEGAN, Les Arcs-sur-Argens, Var, France.
 1995, Ansell fait l’acquisition des laboratoires DEGAN et devient ainsi propriétaire de la marque Manix.
-[3], sur un ton qui se veut humoristique avec l'intention déclarée de déculpabiliser les utilisateurs et les acheteurs. Le premier film publicitaire Manix (« L'empreinte ») est primé d’un Lion d'or au Festival international de la créativité (Cannes Lions)[4].
+, sur un ton qui se veut humoristique avec l'intention déclarée de déculpabiliser les utilisateurs et les acheteurs. Le premier film publicitaire Manix (« L'empreinte ») est primé d’un Lion d'or au Festival international de la créativité (Cannes Lions).
 2006, Manix accélère son déploiement international. Déjà présent dans la plupart des pays francophones, Manix est alors lancé en Chine, en Australie et en Grèce.
 2009, Manix lance Skyn, un préservatif en Sensoprène (une matière qu'ils annoncent sur leur pack comme "imperceptible" et qui restituerait "la sensation de ne rien porter").
 2011, le magazine "60 Millions de Consommateurs" teste la fiabilité des préservatifs en France. Le numéro 1 est un MANIX [Magazine n°457 de Février 2011].
-2017, Ansell vend la division comprenant Manix à LifeStyles Healthcare[5], un consortium formé par Humanwell Healthcare &amp; CITIC Capital[6].
-2018, LifeStyles Healthcare (Manix, Skyn) est, avec 26% de part de marché du bien-être sexuel[7], le deuxième acteur en France.
-2022, LifeStyles Healthcare est acquis par Linden Capital Partners[8], une société de capital-investissement basée à Chicago et axée exclusivement sur le secteur des soins de santé[9].</t>
+2017, Ansell vend la division comprenant Manix à LifeStyles Healthcare, un consortium formé par Humanwell Healthcare &amp; CITIC Capital.
+2018, LifeStyles Healthcare (Manix, Skyn) est, avec 26% de part de marché du bien-être sexuel, le deuxième acteur en France.
+2022, LifeStyles Healthcare est acquis par Linden Capital Partners, une société de capital-investissement basée à Chicago et axée exclusivement sur le secteur des soins de santé.</t>
         </is>
       </c>
     </row>
